--- a/datasets/Question-Types.xlsx
+++ b/datasets/Question-Types.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokel\OneDrive\Masaüstü\dataset_toefl\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0732DE1-CB39-4E28-9C50-1800E2C7DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sayfa1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1705,15 +1714,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1724,36 +1734,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1943,24 +1960,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="49.13"/>
-    <col customWidth="1" min="2" max="2" width="31.75"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1984,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +2012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +2020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +2036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +2052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2048,7 +2068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2056,7 +2076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2064,7 +2084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2072,7 +2092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2080,7 +2100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2088,7 +2108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2104,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2112,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2120,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2128,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2136,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2152,7 +2172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2160,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2168,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2176,7 +2196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,7 +2204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2192,7 +2212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -2200,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -2208,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -2216,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -2224,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2232,7 +2252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -2240,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2256,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2272,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2280,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -2288,7 +2308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2304,7 +2324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2320,7 +2340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2336,7 +2356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2344,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2352,7 +2372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2360,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2368,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2376,7 +2396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,7 +2412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2400,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2408,7 +2428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -2424,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -2440,7 +2460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -2448,7 +2468,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -2456,7 +2476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -2464,7 +2484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -2472,7 +2492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2480,7 +2500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2488,7 +2508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2496,7 +2516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -2504,7 +2524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -2512,7 +2532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -2520,7 +2540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -2528,7 +2548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -2536,7 +2556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -2544,7 +2564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2552,7 +2572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -2568,7 +2588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -2576,7 +2596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
@@ -2584,7 +2604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
@@ -2616,7 +2636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -2624,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
@@ -2632,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -2640,7 +2660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -2656,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -2664,7 +2684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -2672,7 +2692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -2680,7 +2700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -2688,7 +2708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -2696,7 +2716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
@@ -2704,7 +2724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
@@ -2712,7 +2732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
@@ -2720,7 +2740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
@@ -2728,7 +2748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
@@ -2736,7 +2756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
@@ -2744,7 +2764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -2752,7 +2772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -2760,7 +2780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
@@ -2784,7 +2804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
@@ -2792,7 +2812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
@@ -2800,7 +2820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
@@ -2808,7 +2828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
@@ -2816,7 +2836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -2824,7 +2844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
@@ -2848,7 +2868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
@@ -2856,7 +2876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -2864,7 +2884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -2872,7 +2892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -2880,7 +2900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
@@ -2896,7 +2916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
@@ -2904,7 +2924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
@@ -2912,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
@@ -2920,7 +2940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
@@ -2928,7 +2948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
@@ -2936,7 +2956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
@@ -2944,7 +2964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
@@ -2952,7 +2972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
@@ -2960,7 +2980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>133</v>
       </c>
@@ -2968,7 +2988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>134</v>
       </c>
@@ -2976,7 +2996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>135</v>
       </c>
@@ -2984,7 +3004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
@@ -2992,7 +3012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
@@ -3000,7 +3020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>138</v>
       </c>
@@ -3008,7 +3028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>139</v>
       </c>
@@ -3016,7 +3036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -3024,7 +3044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>141</v>
       </c>
@@ -3032,7 +3052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>142</v>
       </c>
@@ -3040,7 +3060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>143</v>
       </c>
@@ -3048,7 +3068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>144</v>
       </c>
@@ -3056,7 +3076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
@@ -3064,7 +3084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -3072,7 +3092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
@@ -3080,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
@@ -3088,7 +3108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>149</v>
       </c>
@@ -3096,7 +3116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
@@ -3112,7 +3132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
@@ -3128,7 +3148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -3136,7 +3156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
@@ -3144,7 +3164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
@@ -3152,7 +3172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>157</v>
       </c>
@@ -3161,6 +3181,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>